--- a/REGULAR/RE-ENCODE/ANACAY, ABNER.xlsx
+++ b/REGULAR/RE-ENCODE/ANACAY, ABNER.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="442">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2406,10 +2406,10 @@
   </sheetPr>
   <dimension ref="A2:K689"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A552" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A627" activePane="bottomLeft"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="B565" sqref="B565"/>
+      <selection pane="bottomLeft" activeCell="A639" sqref="A639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,7 +2583,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>64.788000000000125</v>
+        <v>66.038000000000125</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2593,7 +2593,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>212.05</v>
+        <v>212.3</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -16659,13 +16659,15 @@
       <c r="B637" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C637" s="14"/>
+      <c r="C637" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D637" s="40"/>
       <c r="E637" s="10"/>
       <c r="F637" s="21"/>
-      <c r="G637" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G637" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H637" s="40"/>
       <c r="I637" s="10"/>
@@ -16675,8 +16677,12 @@
       </c>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A638" s="41"/>
-      <c r="B638" s="21"/>
+      <c r="A638" s="41">
+        <v>45047</v>
+      </c>
+      <c r="B638" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="C638" s="14"/>
       <c r="D638" s="40"/>
       <c r="E638" s="10"/>
@@ -16685,10 +16691,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H638" s="40"/>
+      <c r="H638" s="40">
+        <v>1</v>
+      </c>
       <c r="I638" s="10"/>
       <c r="J638" s="12"/>
-      <c r="K638" s="21"/>
+      <c r="K638" s="50">
+        <v>45061</v>
+      </c>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="41"/>
@@ -17550,7 +17560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -17677,7 +17687,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>276.83800000000014</v>
+        <v>278.33800000000014</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>
